--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H2">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I2">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J2">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.151646949453937</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N2">
-        <v>0.151646949453937</v>
+        <v>0.69148</v>
       </c>
       <c r="O2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q2">
-        <v>0.428769642645313</v>
+        <v>1.815385469422222</v>
       </c>
       <c r="R2">
-        <v>0.428769642645313</v>
+        <v>16.3384692248</v>
       </c>
       <c r="S2">
-        <v>2.01877172780688E-05</v>
+        <v>6.74898390069969E-05</v>
       </c>
       <c r="T2">
-        <v>2.01877172780688E-05</v>
+        <v>6.74898390069969E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H3">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I3">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J3">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29552741007957</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N3">
-        <v>4.29552741007957</v>
+        <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q3">
-        <v>12.14526081286199</v>
+        <v>33.97597555324222</v>
       </c>
       <c r="R3">
-        <v>12.14526081286199</v>
+        <v>305.78377997918</v>
       </c>
       <c r="S3">
-        <v>0.0005718340739931721</v>
+        <v>0.001263110870290141</v>
       </c>
       <c r="T3">
-        <v>0.0005718340739931721</v>
+        <v>0.001263110870290141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H4">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I4">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J4">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283070309117136</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N4">
-        <v>0.283070309117136</v>
+        <v>0.886007</v>
       </c>
       <c r="O4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q4">
-        <v>0.8003586997344752</v>
+        <v>2.326089306424445</v>
       </c>
       <c r="R4">
-        <v>0.8003586997344752</v>
+        <v>20.93480375782</v>
       </c>
       <c r="S4">
-        <v>3.768320688843188E-05</v>
+        <v>8.647606552477627E-05</v>
       </c>
       <c r="T4">
-        <v>3.768320688843188E-05</v>
+        <v>8.647606552477627E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H5">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I5">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J5">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496229936752384</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N5">
-        <v>0.496229936752384</v>
+        <v>2.150013</v>
       </c>
       <c r="O5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q5">
-        <v>1.403050528991054</v>
+        <v>5.644562907486666</v>
       </c>
       <c r="R5">
-        <v>1.403050528991054</v>
+        <v>50.80106616738</v>
       </c>
       <c r="S5">
-        <v>6.605968470941116E-05</v>
+        <v>0.0002098455938464603</v>
       </c>
       <c r="T5">
-        <v>6.605968470941116E-05</v>
+        <v>0.0002098455938464604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H6">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I6">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J6">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.31853603120976</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N6">
-        <v>9.31853603120976</v>
+        <v>0.934958</v>
       </c>
       <c r="O6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q6">
-        <v>26.34741667054056</v>
+        <v>2.454603412564444</v>
       </c>
       <c r="R6">
-        <v>26.34741667054056</v>
+        <v>22.09143071308</v>
       </c>
       <c r="S6">
-        <v>0.001240512727232285</v>
+        <v>9.125378159643634E-05</v>
       </c>
       <c r="T6">
-        <v>0.001240512727232285</v>
+        <v>9.125378159643635E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1319.34805423078</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H7">
-        <v>1319.34805423078</v>
+        <v>23.62826</v>
       </c>
       <c r="I7">
-        <v>0.9035175833757644</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J7">
-        <v>0.9035175833757644</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.151646949453937</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N7">
-        <v>0.151646949453937</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q7">
-        <v>200.0751076920852</v>
+        <v>92.09492124623779</v>
       </c>
       <c r="R7">
-        <v>200.0751076920852</v>
+        <v>828.8542912161402</v>
       </c>
       <c r="S7">
-        <v>0.009420115854163157</v>
+        <v>0.003423775012503998</v>
       </c>
       <c r="T7">
-        <v>0.009420115854163157</v>
+        <v>0.003423775012503999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H8">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J8">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.29552741007957</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N8">
-        <v>4.29552741007957</v>
+        <v>0.69148</v>
       </c>
       <c r="O8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q8">
-        <v>5667.295730383463</v>
+        <v>311.3711329970089</v>
       </c>
       <c r="R8">
-        <v>5667.295730383463</v>
+        <v>2802.34019697308</v>
       </c>
       <c r="S8">
-        <v>0.2668327058565334</v>
+        <v>0.01157571655791789</v>
       </c>
       <c r="T8">
-        <v>0.2668327058565334</v>
+        <v>0.01157571655791789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H9">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J9">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.283070309117136</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N9">
-        <v>0.283070309117136</v>
+        <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q9">
-        <v>373.4682615441988</v>
+        <v>5827.488531159556</v>
       </c>
       <c r="R9">
-        <v>373.4682615441988</v>
+        <v>52447.396780436</v>
       </c>
       <c r="S9">
-        <v>0.01758396800172474</v>
+        <v>0.2166461445283313</v>
       </c>
       <c r="T9">
-        <v>0.01758396800172474</v>
+        <v>0.2166461445283313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H10">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I10">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J10">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.496229936752384</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N10">
-        <v>0.496229936752384</v>
+        <v>0.886007</v>
       </c>
       <c r="O10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q10">
-        <v>654.7000015053209</v>
+        <v>398.9659909661608</v>
       </c>
       <c r="R10">
-        <v>654.7000015053209</v>
+        <v>3590.693918695447</v>
       </c>
       <c r="S10">
-        <v>0.03082517328138812</v>
+        <v>0.01483219456865152</v>
       </c>
       <c r="T10">
-        <v>0.03082517328138812</v>
+        <v>0.01483219456865152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1319.34805423078</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H11">
-        <v>1319.34805423078</v>
+        <v>4052.669921</v>
       </c>
       <c r="I11">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J11">
-        <v>0.9035175833757644</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.31853603120976</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N11">
-        <v>9.31853603120976</v>
+        <v>2.150013</v>
       </c>
       <c r="O11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q11">
-        <v>12294.39238105601</v>
+        <v>968.1436683176636</v>
       </c>
       <c r="R11">
-        <v>12294.39238105601</v>
+        <v>8713.293014858973</v>
       </c>
       <c r="S11">
-        <v>0.578855620381955</v>
+        <v>0.03599227900132861</v>
       </c>
       <c r="T11">
-        <v>0.578855620381955</v>
+        <v>0.03599227900132861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H12">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I12">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J12">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.151646949453937</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N12">
-        <v>0.151646949453937</v>
+        <v>0.934958</v>
       </c>
       <c r="O12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q12">
-        <v>0.05260319388792531</v>
+        <v>421.0084626664798</v>
       </c>
       <c r="R12">
-        <v>0.05260319388792531</v>
+        <v>3789.076163998318</v>
       </c>
       <c r="S12">
-        <v>2.476710803454268E-06</v>
+        <v>0.01565165847393676</v>
       </c>
       <c r="T12">
-        <v>2.476710803454268E-06</v>
+        <v>0.01565165847393676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H13">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I13">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J13">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.29552741007957</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N13">
-        <v>4.29552741007957</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q13">
-        <v>1.490029717161891</v>
+        <v>15795.9289939882</v>
       </c>
       <c r="R13">
-        <v>1.490029717161891</v>
+        <v>142163.3609458939</v>
       </c>
       <c r="S13">
-        <v>7.015491693955603E-05</v>
+        <v>0.5872387560254693</v>
       </c>
       <c r="T13">
-        <v>7.015491693955603E-05</v>
+        <v>0.5872387560254694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.346879340978129</v>
+        <v>0.775464</v>
       </c>
       <c r="H14">
-        <v>0.346879340978129</v>
+        <v>2.326392</v>
       </c>
       <c r="I14">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J14">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.283070309117136</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N14">
-        <v>0.283070309117136</v>
+        <v>0.69148</v>
       </c>
       <c r="O14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q14">
-        <v>0.0981912422770274</v>
+        <v>0.17873928224</v>
       </c>
       <c r="R14">
-        <v>0.0981912422770274</v>
+        <v>1.60865354016</v>
       </c>
       <c r="S14">
-        <v>4.623128228111869E-06</v>
+        <v>6.644916788081963E-06</v>
       </c>
       <c r="T14">
-        <v>4.623128228111869E-06</v>
+        <v>6.644916788081964E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.346879340978129</v>
+        <v>0.775464</v>
       </c>
       <c r="H15">
-        <v>0.346879340978129</v>
+        <v>2.326392</v>
       </c>
       <c r="I15">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J15">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.496229936752384</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N15">
-        <v>0.496229936752384</v>
+        <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q15">
-        <v>0.1721319134342856</v>
+        <v>3.345207718184</v>
       </c>
       <c r="R15">
-        <v>0.1721319134342856</v>
+        <v>30.106869463656</v>
       </c>
       <c r="S15">
-        <v>8.104469293827595E-06</v>
+        <v>0.0001243634115993316</v>
       </c>
       <c r="T15">
-        <v>8.104469293827595E-06</v>
+        <v>0.0001243634115993316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.346879340978129</v>
+        <v>0.775464</v>
       </c>
       <c r="H16">
-        <v>0.346879340978129</v>
+        <v>2.326392</v>
       </c>
       <c r="I16">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J16">
-        <v>0.0002375503438069383</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.31853603120976</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N16">
-        <v>9.31853603120976</v>
+        <v>0.886007</v>
       </c>
       <c r="O16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q16">
-        <v>3.232407637386991</v>
+        <v>0.229022177416</v>
       </c>
       <c r="R16">
-        <v>3.232407637386991</v>
+        <v>2.061199596744</v>
       </c>
       <c r="S16">
-        <v>0.0001521911185419885</v>
+        <v>8.514263302854943E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001521911185419885</v>
+        <v>8.514263302854943E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H17">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I17">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J17">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151646949453937</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N17">
-        <v>0.151646949453937</v>
+        <v>2.150013</v>
       </c>
       <c r="O17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q17">
-        <v>0.2740731596509033</v>
+        <v>0.555752560344</v>
       </c>
       <c r="R17">
-        <v>0.2740731596509033</v>
+        <v>5.001773043096001</v>
       </c>
       <c r="S17">
-        <v>1.290415857429624E-05</v>
+        <v>2.066098437886051E-05</v>
       </c>
       <c r="T17">
-        <v>1.290415857429624E-05</v>
+        <v>2.066098437886051E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H18">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I18">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J18">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.29552741007957</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N18">
-        <v>4.29552741007957</v>
+        <v>0.934958</v>
       </c>
       <c r="O18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q18">
-        <v>7.763352799953109</v>
+        <v>0.241675423504</v>
       </c>
       <c r="R18">
-        <v>7.763352799953109</v>
+        <v>2.175078811536</v>
       </c>
       <c r="S18">
-        <v>0.0003655211467128113</v>
+        <v>8.984667828934366E-06</v>
       </c>
       <c r="T18">
-        <v>0.0003655211467128113</v>
+        <v>8.984667828934367E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.80731073482064</v>
+        <v>0.775464</v>
       </c>
       <c r="H19">
-        <v>1.80731073482064</v>
+        <v>2.326392</v>
       </c>
       <c r="I19">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562098</v>
       </c>
       <c r="J19">
-        <v>0.001237684796136887</v>
+        <v>0.0005062663966562099</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.283070309117136</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N19">
-        <v>0.283070309117136</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q19">
-        <v>0.5115960083763967</v>
+        <v>9.067484784232001</v>
       </c>
       <c r="R19">
-        <v>0.5115960083763967</v>
+        <v>81.60736305808803</v>
       </c>
       <c r="S19">
-        <v>2.408742259356899E-05</v>
+        <v>0.0003370981527581465</v>
       </c>
       <c r="T19">
-        <v>2.408742259356899E-05</v>
+        <v>0.0003370981527581465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.80731073482064</v>
+        <v>2.121057</v>
       </c>
       <c r="H20">
-        <v>1.80731073482064</v>
+        <v>6.363171</v>
       </c>
       <c r="I20">
-        <v>0.001237684796136887</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J20">
-        <v>0.001237684796136887</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.496229936752384</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N20">
-        <v>0.496229936752384</v>
+        <v>0.69148</v>
       </c>
       <c r="O20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q20">
-        <v>0.8968416916319509</v>
+        <v>0.48888949812</v>
       </c>
       <c r="R20">
-        <v>0.8968416916319509</v>
+        <v>4.40000548308</v>
       </c>
       <c r="S20">
-        <v>4.22259057384521E-05</v>
+        <v>1.817524381245134E-05</v>
       </c>
       <c r="T20">
-        <v>4.22259057384521E-05</v>
+        <v>1.817524381245134E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.80731073482064</v>
+        <v>2.121057</v>
       </c>
       <c r="H21">
-        <v>1.80731073482064</v>
+        <v>6.363171</v>
       </c>
       <c r="I21">
-        <v>0.001237684796136887</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J21">
-        <v>0.001237684796136887</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.31853603120976</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N21">
-        <v>9.31853603120976</v>
+        <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.6406689045488276</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P21">
-        <v>0.6406689045488276</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q21">
-        <v>16.84149020201832</v>
+        <v>9.149846088417</v>
       </c>
       <c r="R21">
-        <v>16.84149020201832</v>
+        <v>82.34861479575301</v>
       </c>
       <c r="S21">
-        <v>0.0007929461625177585</v>
+        <v>0.0003401600650921815</v>
       </c>
       <c r="T21">
-        <v>0.0007929461625177585</v>
+        <v>0.0003401600650921815</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.905397365924</v>
+        <v>2.121057</v>
       </c>
       <c r="H22">
-        <v>135.905397365924</v>
+        <v>6.363171</v>
       </c>
       <c r="I22">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J22">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.151646949453937</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N22">
-        <v>0.151646949453937</v>
+        <v>0.886007</v>
       </c>
       <c r="O22">
-        <v>0.01042604596466986</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P22">
-        <v>0.01042604596466986</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q22">
-        <v>20.6096389248675</v>
+        <v>0.626423783133</v>
       </c>
       <c r="R22">
-        <v>20.6096389248675</v>
+        <v>5.637814048197</v>
       </c>
       <c r="S22">
-        <v>0.0009703615238508883</v>
+        <v>2.328829936446256E-05</v>
       </c>
       <c r="T22">
-        <v>0.0009703615238508883</v>
+        <v>2.328829936446256E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.905397365924</v>
+        <v>2.121057</v>
       </c>
       <c r="H23">
-        <v>135.905397365924</v>
+        <v>6.363171</v>
       </c>
       <c r="I23">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J23">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.29552741007957</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N23">
-        <v>4.29552741007957</v>
+        <v>2.150013</v>
       </c>
       <c r="O23">
-        <v>0.2953265224342183</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P23">
-        <v>0.2953265224342183</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q23">
-        <v>583.7853595630824</v>
+        <v>1.520100041247</v>
       </c>
       <c r="R23">
-        <v>583.7853595630824</v>
+        <v>13.680900371223</v>
       </c>
       <c r="S23">
-        <v>0.02748630644003935</v>
+        <v>5.651213408188224E-05</v>
       </c>
       <c r="T23">
-        <v>0.02748630644003935</v>
+        <v>5.651213408188226E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.905397365924</v>
+        <v>2.121057</v>
       </c>
       <c r="H24">
-        <v>135.905397365924</v>
+        <v>6.363171</v>
       </c>
       <c r="I24">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J24">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.283070309117136</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N24">
-        <v>0.283070309117136</v>
+        <v>0.934958</v>
       </c>
       <c r="O24">
-        <v>0.01946167769754597</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P24">
-        <v>0.01946167769754597</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q24">
-        <v>38.4707828430593</v>
+        <v>0.661033070202</v>
       </c>
       <c r="R24">
-        <v>38.4707828430593</v>
+        <v>5.949297631818</v>
       </c>
       <c r="S24">
-        <v>0.00181131593811111</v>
+        <v>2.457495459652033E-05</v>
       </c>
       <c r="T24">
-        <v>0.00181131593811111</v>
+        <v>2.457495459652033E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.905397365924</v>
+        <v>2.121057</v>
       </c>
       <c r="H25">
-        <v>135.905397365924</v>
+        <v>6.363171</v>
       </c>
       <c r="I25">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283513</v>
       </c>
       <c r="J25">
-        <v>0.09307090407419034</v>
+        <v>0.001384744984283514</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.496229936752384</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N25">
-        <v>0.496229936752384</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O25">
-        <v>0.03411684935473826</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P25">
-        <v>0.03411684935473826</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q25">
-        <v>67.44032673920007</v>
+        <v>24.801476372841</v>
       </c>
       <c r="R25">
-        <v>67.44032673920007</v>
+        <v>223.213287355569</v>
       </c>
       <c r="S25">
-        <v>0.003175286013608447</v>
+        <v>0.0009220342873360155</v>
       </c>
       <c r="T25">
-        <v>0.003175286013608447</v>
+        <v>0.0009220342873360156</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.042591</v>
+      </c>
+      <c r="I26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.69148</v>
+      </c>
+      <c r="O26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q26">
+        <v>0.08010342496444445</v>
+      </c>
+      <c r="R26">
+        <v>0.72093082468</v>
+      </c>
+      <c r="S26">
+        <v>2.977972086820778E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.977972086820778E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.042591</v>
+      </c>
+      <c r="I27">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J27">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N27">
+        <v>12.941443</v>
+      </c>
+      <c r="O27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q27">
+        <v>1.499181333201444</v>
+      </c>
+      <c r="R27">
+        <v>13.492631998813</v>
+      </c>
+      <c r="S27">
+        <v>5.573444787583465E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.573444787583465E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.042591</v>
+      </c>
+      <c r="I28">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J28">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.886007</v>
+      </c>
+      <c r="O28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q28">
+        <v>0.1026381026818889</v>
+      </c>
+      <c r="R28">
+        <v>0.923742924137</v>
+      </c>
+      <c r="S28">
+        <v>3.815734532781594E-06</v>
+      </c>
+      <c r="T28">
+        <v>3.815734532781594E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.042591</v>
+      </c>
+      <c r="I29">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J29">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N29">
+        <v>2.150013</v>
+      </c>
+      <c r="O29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q29">
+        <v>0.2490649115203333</v>
+      </c>
+      <c r="R29">
+        <v>2.241584203683</v>
+      </c>
+      <c r="S29">
+        <v>9.259383785940013E-06</v>
+      </c>
+      <c r="T29">
+        <v>9.259383785940013E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.042591</v>
+      </c>
+      <c r="I30">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J30">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.934958</v>
+      </c>
+      <c r="O30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q30">
+        <v>0.1083087551308889</v>
+      </c>
+      <c r="R30">
+        <v>0.974778796178</v>
+      </c>
+      <c r="S30">
+        <v>4.026550046783393E-06</v>
+      </c>
+      <c r="T30">
+        <v>4.026550046783393E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.042591</v>
+      </c>
+      <c r="I31">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J31">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N31">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q31">
+        <v>4.063665121216556</v>
+      </c>
+      <c r="R31">
+        <v>36.57298609094901</v>
+      </c>
+      <c r="S31">
+        <v>0.0001510732070013432</v>
+      </c>
+      <c r="T31">
+        <v>0.0001510732070013432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H32">
+        <v>509.163056</v>
+      </c>
+      <c r="I32">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J32">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.69148</v>
+      </c>
+      <c r="O32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q32">
+        <v>39.11956332920889</v>
+      </c>
+      <c r="R32">
+        <v>352.07606996288</v>
+      </c>
+      <c r="S32">
+        <v>0.001454331917701538</v>
+      </c>
+      <c r="T32">
+        <v>0.001454331917701538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H33">
+        <v>509.163056</v>
+      </c>
+      <c r="I33">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J33">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N33">
+        <v>12.941443</v>
+      </c>
+      <c r="O33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q33">
+        <v>732.1449629922008</v>
+      </c>
+      <c r="R33">
+        <v>6589.304666929807</v>
+      </c>
+      <c r="S33">
+        <v>0.02721865218952847</v>
+      </c>
+      <c r="T33">
+        <v>0.02721865218952847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H34">
+        <v>509.163056</v>
+      </c>
+      <c r="I34">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J34">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.886007</v>
+      </c>
+      <c r="O34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q34">
+        <v>50.12467019526577</v>
+      </c>
+      <c r="R34">
+        <v>451.122031757392</v>
+      </c>
+      <c r="S34">
+        <v>0.001863464249735331</v>
+      </c>
+      <c r="T34">
+        <v>0.001863464249735331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H35">
+        <v>509.163056</v>
+      </c>
+      <c r="I35">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J35">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N35">
+        <v>2.150013</v>
+      </c>
+      <c r="O35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q35">
+        <v>121.6341321688586</v>
+      </c>
+      <c r="R35">
+        <v>1094.707189519728</v>
+      </c>
+      <c r="S35">
+        <v>0.004521942108771384</v>
+      </c>
+      <c r="T35">
+        <v>0.004521942108771384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>135.905397365924</v>
-      </c>
-      <c r="H26">
-        <v>135.905397365924</v>
-      </c>
-      <c r="I26">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="J26">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="N26">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="O26">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="P26">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="Q26">
-        <v>1266.439342190243</v>
-      </c>
-      <c r="R26">
-        <v>1266.439342190243</v>
-      </c>
-      <c r="S26">
-        <v>0.05962763415858054</v>
-      </c>
-      <c r="T26">
-        <v>0.05962763415858054</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H36">
+        <v>509.163056</v>
+      </c>
+      <c r="I36">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J36">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.934958</v>
+      </c>
+      <c r="O36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q36">
+        <v>52.89400805684977</v>
+      </c>
+      <c r="R36">
+        <v>476.0460725116479</v>
+      </c>
+      <c r="S36">
+        <v>0.001966418784506269</v>
+      </c>
+      <c r="T36">
+        <v>0.001966418784506269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H37">
+        <v>509.163056</v>
+      </c>
+      <c r="I37">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J37">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N37">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q37">
+        <v>1984.544420275287</v>
+      </c>
+      <c r="R37">
+        <v>17860.89978247759</v>
+      </c>
+      <c r="S37">
+        <v>0.07377859175508371</v>
+      </c>
+      <c r="T37">
+        <v>0.07377859175508371</v>
       </c>
     </row>
   </sheetData>
